--- a/matched/clean_match.xlsx
+++ b/matched/clean_match.xlsx
@@ -2251,16 +2251,16 @@
     <t>Withdrawal Producer</t>
   </si>
   <si>
-    <t>['Augusto César  Diaz']</t>
+    <t>['Augusto Cesar  Diaz']</t>
   </si>
   <si>
     <t>['Pavel aka Paul Mosencov']</t>
   </si>
   <si>
-    <t>['Matjaž Ivanišin']</t>
-  </si>
-  <si>
-    <t>['Denisa  Grimmová', 'Jan  Bubenícek']</t>
+    <t>['Matjaz Ivanisin']</t>
+  </si>
+  <si>
+    <t>['Denisa  Grimmova', 'Jan  Bubenicek']</t>
   </si>
   <si>
     <t>['Martin Turk']</t>
@@ -2272,7 +2272,7 @@
     <t>['Spartak Pecani']</t>
   </si>
   <si>
-    <t>['Ivan Ostrochovský']</t>
+    <t>['Ivan Ostrochovsky']</t>
   </si>
   <si>
     <t>['Sean McCormack', 'Toby Genkel']</t>
@@ -2290,7 +2290,7 @@
     <t>['Gjergj Xhuvani']</t>
   </si>
   <si>
-    <t>['Anna Falguères', 'John Shank']</t>
+    <t>['Anna Falgueres', 'John Shank']</t>
   </si>
   <si>
     <t>['Cagil Bocutoglu']</t>
@@ -2329,7 +2329,7 @@
     <t>['Richard Copans']</t>
   </si>
   <si>
-    <t>['João Nicolau']</t>
+    <t>['Joao Nicolau']</t>
   </si>
   <si>
     <t>['Stavros Pamballis']</t>
@@ -2359,7 +2359,7 @@
     <t>['Caroline Fourest']</t>
   </si>
   <si>
-    <t>['Frédéric Fonteyne']</t>
+    <t>['Frederic Fonteyne']</t>
   </si>
   <si>
     <t>['Eran Riklis']</t>
@@ -2380,7 +2380,7 @@
     <t>['Yusup Razykov']</t>
   </si>
   <si>
-    <t>['Bénédicte Liénard', 'Mary  Jimenez']</t>
+    <t>['Mary  Jimenez', 'Benedicte Lienard']</t>
   </si>
   <si>
     <t>['Aureliano Amadei']</t>
@@ -2443,7 +2443,7 @@
     <t>['Ines Tanovic']</t>
   </si>
   <si>
-    <t>['Toby Genkel', 'Xavier Giacometti']</t>
+    <t>['Xavier Giacometti', 'Toby Genkel']</t>
   </si>
   <si>
     <t>['Igor Tuveri']</t>
@@ -2455,10 +2455,10 @@
     <t>['Emanuel Hoss-Desmarais']</t>
   </si>
   <si>
-    <t>['Léa Pool']</t>
-  </si>
-  <si>
-    <t>['Ognjen Svilicic ']</t>
+    <t>['Lea Pool']</t>
+  </si>
+  <si>
+    <t>['Ognjen Svilicic']</t>
   </si>
   <si>
     <t>['Olivier Babinet']</t>
@@ -2473,13 +2473,13 @@
     <t>['Gabriele Salvatores']</t>
   </si>
   <si>
-    <t>['Maria Bäck']</t>
-  </si>
-  <si>
-    <t>['Amin Sidi-Boumédiene']</t>
-  </si>
-  <si>
-    <t>['Dénes Nagy']</t>
+    <t>['Maria Back']</t>
+  </si>
+  <si>
+    <t>['Amin Sidi-Boumediene']</t>
+  </si>
+  <si>
+    <t>['Denes Nagy']</t>
   </si>
   <si>
     <t>['Atiq Rahimi']</t>
@@ -2506,13 +2506,13 @@
     <t>['David Perrault']</t>
   </si>
   <si>
-    <t>['Štepán Altrichter']</t>
+    <t>['Stepan Altrichter']</t>
   </si>
   <si>
     <t>['Stefan Ruzowitzky']</t>
   </si>
   <si>
-    <t>['Melik Saracoglu', 'Hakki Kurtulus']</t>
+    <t>['Hakki Kurtulus', 'Melik Saracoglu']</t>
   </si>
   <si>
     <t>['Fabrice Du Welz']</t>
@@ -2524,16 +2524,16 @@
     <t>['Santiago Zannou']</t>
   </si>
   <si>
-    <t>['François Girard']</t>
+    <t>['Francois Girard']</t>
   </si>
   <si>
     <t>['Fenar Ahmad']</t>
   </si>
   <si>
-    <t>[' Miguel Angel Jiménez']</t>
-  </si>
-  <si>
-    <t>['Jitka Rudolfová']</t>
+    <t>['Miguel Angel Jimenez']</t>
+  </si>
+  <si>
+    <t>['Jitka Rudolfova']</t>
   </si>
   <si>
     <t>['Ari Folman']</t>
@@ -2545,13 +2545,13 @@
     <t>['Magdalena Osinska']</t>
   </si>
   <si>
-    <t>['Viesturs Kairišs']</t>
-  </si>
-  <si>
-    <t>['Irena Pavlásková']</t>
-  </si>
-  <si>
-    <t>['Ramon Zürcher']</t>
+    <t>['Viesturs Kairiss']</t>
+  </si>
+  <si>
+    <t>['Irena Pavlaskova']</t>
+  </si>
+  <si>
+    <t>['Ramon Zurcher']</t>
   </si>
   <si>
     <t>['Pawel Ferdek']</t>
@@ -2575,7 +2575,7 @@
     <t>['Kieron J. Walsh']</t>
   </si>
   <si>
-    <t>['Niccolò Castelli']</t>
+    <t>['Niccolo Castelli']</t>
   </si>
   <si>
     <t>['Niels Arden Oplev']</t>
@@ -2590,7 +2590,7 @@
     <t>['Gianfranco Rosi']</t>
   </si>
   <si>
-    <t>['Gonçalo Waddington']</t>
+    <t>['Goncalo Waddington']</t>
   </si>
   <si>
     <t>['Jean-Pierre et Luc Dardenne']</t>
@@ -2614,7 +2614,7 @@
     <t>['Tim Fehlbaum']</t>
   </si>
   <si>
-    <t>['Aude Léa Rapin']</t>
+    <t>['Aude Lea Rapin']</t>
   </si>
   <si>
     <t>['Andrew Cividino']</t>
@@ -2644,13 +2644,13 @@
     <t>['Mila Turajlic']</t>
   </si>
   <si>
-    <t>['Ondrej Provaznik', 'Martin Dusek']</t>
+    <t>['Martin Dusek', 'Ondrej Provaznik']</t>
   </si>
   <si>
     <t>['Philip Scheffner']</t>
   </si>
   <si>
-    <t>['Hlynur Pálmason']</t>
+    <t>['Hlynur Palmason']</t>
   </si>
   <si>
     <t>['Ninja  Thyberg']</t>
@@ -2668,7 +2668,7 @@
     <t>['Ivan Bolotnikov']</t>
   </si>
   <si>
-    <t>['Pierre Léon']</t>
+    <t>['Pierre Leon']</t>
   </si>
   <si>
     <t>['Kim Strobl']</t>
@@ -2677,13 +2677,13 @@
     <t>['Anne Zohra Berrached']</t>
   </si>
   <si>
-    <t>['Ismaël El Iraki']</t>
-  </si>
-  <si>
-    <t>['Noël Alpi']</t>
-  </si>
-  <si>
-    <t>['Alessandro Rossellini', "Lorenzo d'Amico De Carvalho"]</t>
+    <t>['Ismael El Iraki']</t>
+  </si>
+  <si>
+    <t>['Noel Alpi']</t>
+  </si>
+  <si>
+    <t>["Lorenzo d'Amico De Carvalho", 'Alessandro Rossellini']</t>
   </si>
   <si>
     <t>['Milcho  Manchevski']</t>
@@ -2743,16 +2743,16 @@
     <t>['Josef Demian']</t>
   </si>
   <si>
-    <t>['Rémi Chayé']</t>
+    <t>['Remi Chaye']</t>
   </si>
   <si>
     <t>['Rodrigo Sorogoyen']</t>
   </si>
   <si>
-    <t>['Hélier Cisterne']</t>
-  </si>
-  <si>
-    <t>['Valérie Donzelli']</t>
+    <t>['Helier Cisterne']</t>
+  </si>
+  <si>
+    <t>['Valerie Donzelli']</t>
   </si>
   <si>
     <t>['Filippo Meneghetti']</t>
@@ -2767,7 +2767,7 @@
     <t>['Maxim Dashkin']</t>
   </si>
   <si>
-    <t>['Rúnar Rúnarsson']</t>
+    <t>['Runar Runarsson']</t>
   </si>
   <si>
     <t>['Peter Bebjak']</t>
@@ -2776,7 +2776,7 @@
     <t>['Damjan Kozole']</t>
   </si>
   <si>
-    <t>['Ben Tesseur', 'Steven De Beul', 'Jeff Tudor']</t>
+    <t>['Ben Tesseur', 'Jeff Tudor', 'Steven De Beul']</t>
   </si>
   <si>
     <t>['Claudia Pinto Emperador']</t>
@@ -2800,7 +2800,7 @@
     <t>['Amandine Gay']</t>
   </si>
   <si>
-    <t>['Kaan Müjdeci']</t>
+    <t>['Kaan Mujdeci']</t>
   </si>
   <si>
     <t>['Nana Jorjadze']</t>
@@ -2812,7 +2812,7 @@
     <t>['Amanda Kernell']</t>
   </si>
   <si>
-    <t>['Jukka-Pekka  Valkeapää ']</t>
+    <t>['Jukka-Pekka  Valkeapaa']</t>
   </si>
   <si>
     <t>['Pawel  Borowski']</t>
@@ -2833,10 +2833,10 @@
     <t>['Petr  Zelenka']</t>
   </si>
   <si>
-    <t>['Peter Budinský']</t>
-  </si>
-  <si>
-    <t>['Joaquín Gutiérrez Acha']</t>
+    <t>['Peter Budinsky']</t>
+  </si>
+  <si>
+    <t>['Joaquin Gutierrez Acha']</t>
   </si>
   <si>
     <t>['Srdjan Dragojevic']</t>
@@ -2911,7 +2911,7 @@
     <t>['Matyas Prikler']</t>
   </si>
   <si>
-    <t>['Víctor García León']</t>
+    <t>['Victor Garcia Leon']</t>
   </si>
   <si>
     <t>['Roberto Salinas']</t>
